--- a/public/assets/tempfiles/users.xlsx
+++ b/public/assets/tempfiles/users.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">region</t>
   </si>
   <si>
-    <t xml:space="preserve">0002</t>
+    <t xml:space="preserve">0030</t>
   </si>
   <si>
     <t xml:space="preserve">EADMIN</t>
@@ -254,17 +254,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
@@ -309,9 +309,6 @@
       </c>
       <c r="F2" s="2" t="n">
         <v>12345678</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
